--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.4.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.4.4_TC1.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.1498701785195733</v>
+        <v>0.1267333857233461</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2952547686868131</v>
+        <v>0.3257498546112294</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2952547686868131, 'ngram_match_score': 0.1494940897875517, 'weighted_ngram_match_score': 0.15782347976572142, 'syntax_match_score': 0.5141509433962265, 'dataflow_match_score': 0.3595505617977528}</t>
+          <t>{'codebleu': 0.3257498546112294, 'ngram_match_score': 0.12640884173887587, 'weighted_ngram_match_score': 0.14447270517752783, 'syntax_match_score': 0.5377358490566038, 'dataflow_match_score': 0.4943820224719101}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.8190076714746602</v>
+        <v>0.8913486560164019</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
